--- a/NSGA-II_results/T_delay_results.xlsx
+++ b/NSGA-II_results/T_delay_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAA2262-1725-4A74-85C5-0F27812C7D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153BD8D6-85F0-4E71-BD1A-2BD219269727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{29D4C77C-AF24-4420-B45D-F4D6AED8DEB7}"/>
   </bookViews>
@@ -416,7 +416,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -512,7 +512,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -520,7 +520,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -528,7 +528,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -536,7 +536,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -544,7 +544,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -552,7 +552,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -560,7 +560,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -568,7 +568,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -576,7 +576,7 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +608,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -800,7 +800,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -824,7 +824,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -896,7 +896,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -920,7 +920,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -992,7 +992,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1088,7 +1088,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1104,7 +1104,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1120,7 +1120,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1128,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1136,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1208,7 +1208,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1216,7 +1216,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1224,7 +1224,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1288,7 +1288,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1296,7 +1296,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1304,7 +1304,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1320,7 +1320,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1344,7 +1344,7 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>7.8332079938383634</v>
+        <v>317.29163784873316</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">

--- a/NSGA-II_results/T_delay_results.xlsx
+++ b/NSGA-II_results/T_delay_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153BD8D6-85F0-4E71-BD1A-2BD219269727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CF3BC2-6073-4DAB-950C-C84D8D270B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{29D4C77C-AF24-4420-B45D-F4D6AED8DEB7}"/>
   </bookViews>
@@ -416,7 +416,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -512,7 +512,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -520,7 +520,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -528,7 +528,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -536,7 +536,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -544,7 +544,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -552,7 +552,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -560,7 +560,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -568,7 +568,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -576,7 +576,7 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +608,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -800,7 +800,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -824,7 +824,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -896,7 +896,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -920,7 +920,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -992,7 +992,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1088,7 +1088,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1104,7 +1104,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1120,7 +1120,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1128,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1136,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1208,7 +1208,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1216,7 +1216,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1224,7 +1224,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1288,7 +1288,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1296,7 +1296,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1304,7 +1304,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1320,7 +1320,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1344,7 +1344,7 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>317.29163784873316</v>
+        <v>1199.5155616827467</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">

--- a/NSGA-II_results/T_delay_results.xlsx
+++ b/NSGA-II_results/T_delay_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CF3BC2-6073-4DAB-950C-C84D8D270B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDF96BF-A991-40CB-848F-D8B322C3C94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{29D4C77C-AF24-4420-B45D-F4D6AED8DEB7}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{F5221CD9-747C-473E-AA5D-BE9D4C07D50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555F43E9-E8A4-4CAE-A30C-D8A634349341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB6D791-0616-413C-A949-DB5B563D31AB}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>1226.6055683203315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8566284-DE47-4BC7-AAAB-3327BB0B7087}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -416,175 +512,79 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5773C-6111-432A-9E7F-7DEF895113BB}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>60</v>
-      </c>
-      <c r="B1">
-        <v>1199.5155616827467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>1199.5155616827467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <v>1199.5155616827467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>1199.5155616827467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5">
-        <v>1199.5155616827467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>1199.5155616827467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>1199.5155616827467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8">
-        <v>1199.5155616827467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9">
-        <v>1199.5155616827467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458AEBDE-958E-40E9-B8E3-19A7AEFB5F9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB3121-7822-4943-B769-921226444CB8}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -608,7 +608,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F8AAD1-5864-4902-A2FE-0CE26EE351A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16E2C7D-CA5F-4ECC-8849-B49FB6C5E1BE}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -704,7 +704,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295279B4-8060-40FC-B8EB-0D78CE0157C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA24DF27-D7CB-4627-B3A3-933E50A19FFA}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -800,7 +800,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -824,7 +824,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740FE1A6-A304-4E2D-ADDD-10D203DBF990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B2865B-6271-4C4A-BA97-B1E976F99455}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -896,7 +896,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -920,7 +920,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2293B171-2250-4AB0-84B0-32DBBF188592}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EF5FA7-B280-449A-9E62-3EE358BA5452}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -992,7 +992,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D88F12-107C-47D8-BB29-FF19045E2C5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD302E1-C8B0-4DF4-9040-892872AB66B6}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1088,7 +1088,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1104,7 +1104,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1120,7 +1120,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1128,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1136,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857E6A42-0984-4107-9E58-BE979C43E04F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C6CE66-33DD-4E0B-A2DF-8FB8D8C59EAF}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1184,7 +1184,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1208,7 +1208,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1216,7 +1216,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1224,7 +1224,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A773E2-C3D1-4137-8ABA-0CD092629110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4682D306-5478-42F9-8EB9-AA365A6A1966}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1280,7 +1280,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1288,7 +1288,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1296,7 +1296,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1304,7 +1304,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1320,7 +1320,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1344,7 +1344,7 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>1199.5155616827467</v>
+        <v>1226.6055683203315</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">

--- a/NSGA-II_results/T_delay_results.xlsx
+++ b/NSGA-II_results/T_delay_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDF96BF-A991-40CB-848F-D8B322C3C94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A9694-B9E6-48BB-A096-8666AEB56E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{F5221CD9-747C-473E-AA5D-BE9D4C07D50B}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{F5221CD9-747C-473E-AA5D-BE9D4C07D50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -409,17 +407,17 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1226.6055683203315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1199.2489497564707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -427,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -435,7 +433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -443,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -451,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -459,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -467,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -475,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -483,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -505,9 +503,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -515,7 +513,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>60</v>
       </c>
@@ -523,7 +521,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>60</v>
       </c>
@@ -531,7 +529,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>60</v>
       </c>
@@ -539,7 +537,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>60</v>
       </c>
@@ -547,7 +545,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>60</v>
       </c>
@@ -555,7 +553,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>60</v>
       </c>
@@ -563,7 +561,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>60</v>
       </c>
@@ -571,7 +569,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>60</v>
       </c>
@@ -579,7 +577,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>60</v>
       </c>
@@ -601,9 +599,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -611,7 +609,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>60</v>
       </c>
@@ -619,7 +617,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -627,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -635,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -643,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -651,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -659,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -667,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -675,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -697,9 +695,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -707,7 +705,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>60</v>
       </c>
@@ -715,7 +713,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>60</v>
       </c>
@@ -723,7 +721,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -731,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -739,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -747,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -755,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -763,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -771,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -793,9 +791,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -803,7 +801,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>60</v>
       </c>
@@ -811,7 +809,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>60</v>
       </c>
@@ -819,7 +817,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>60</v>
       </c>
@@ -827,7 +825,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -835,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -843,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -851,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -859,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -867,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -889,9 +887,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -899,7 +897,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>60</v>
       </c>
@@ -907,7 +905,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>60</v>
       </c>
@@ -915,7 +913,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>60</v>
       </c>
@@ -923,7 +921,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>60</v>
       </c>
@@ -931,7 +929,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -939,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -947,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -955,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -963,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -985,9 +983,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -995,7 +993,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>60</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>60</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>60</v>
       </c>
@@ -1019,7 +1017,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>60</v>
       </c>
@@ -1027,7 +1025,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>60</v>
       </c>
@@ -1035,7 +1033,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1043,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1051,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1059,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1081,9 +1079,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>60</v>
       </c>
@@ -1099,7 +1097,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>60</v>
       </c>
@@ -1107,7 +1105,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>60</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>60</v>
       </c>
@@ -1123,7 +1121,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>60</v>
       </c>
@@ -1131,7 +1129,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>60</v>
       </c>
@@ -1139,7 +1137,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1147,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1155,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1177,9 +1175,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -1187,7 +1185,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>60</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>60</v>
       </c>
@@ -1203,7 +1201,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>60</v>
       </c>
@@ -1211,7 +1209,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>60</v>
       </c>
@@ -1219,7 +1217,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>60</v>
       </c>
@@ -1227,7 +1225,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>60</v>
       </c>
@@ -1235,7 +1233,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1243,7 +1241,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1251,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1273,9 +1271,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>60</v>
       </c>
@@ -1291,7 +1289,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>60</v>
       </c>
@@ -1299,7 +1297,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>60</v>
       </c>
@@ -1307,7 +1305,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>60</v>
       </c>
@@ -1315,7 +1313,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>60</v>
       </c>
@@ -1323,7 +1321,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>60</v>
       </c>
@@ -1331,7 +1329,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1339,7 +1337,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>60</v>
       </c>
@@ -1347,7 +1345,7 @@
         <v>1226.6055683203315</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>

--- a/NSGA-II_results/T_delay_results.xlsx
+++ b/NSGA-II_results/T_delay_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A9694-B9E6-48BB-A096-8666AEB56E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B164BFA7-8373-4F66-AD31-81534B815237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{F5221CD9-747C-473E-AA5D-BE9D4C07D50B}"/>
   </bookViews>
@@ -414,7 +414,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1199.2489497564707</v>
+        <v>147.55501142051085</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
